--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ebi3-Il6st.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H2">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I2">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J2">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N2">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O2">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P2">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q2">
-        <v>322.6846382165156</v>
+        <v>524.482287321599</v>
       </c>
       <c r="R2">
-        <v>2904.161743948639</v>
+        <v>4720.340585894391</v>
       </c>
       <c r="S2">
-        <v>0.1054211066265137</v>
+        <v>0.1112325905721417</v>
       </c>
       <c r="T2">
-        <v>0.1100702374548918</v>
+        <v>0.1141971422839299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H3">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I3">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J3">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P3">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q3">
-        <v>751.1662153245289</v>
+        <v>1191.334312682496</v>
       </c>
       <c r="R3">
-        <v>6760.495937920759</v>
+        <v>10722.00881414247</v>
       </c>
       <c r="S3">
-        <v>0.2454060847694512</v>
+        <v>0.2526590602589807</v>
       </c>
       <c r="T3">
-        <v>0.2562286328405438</v>
+        <v>0.2593928857119066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H4">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I4">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J4">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N4">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O4">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P4">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q4">
-        <v>103.69276267728</v>
+        <v>216.6006096673516</v>
       </c>
       <c r="R4">
-        <v>933.23486409552</v>
+        <v>1949.405487006165</v>
       </c>
       <c r="S4">
-        <v>0.03387643691691496</v>
+        <v>0.04593681715323889</v>
       </c>
       <c r="T4">
-        <v>0.03537040707399187</v>
+        <v>0.04716111723674196</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H5">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I5">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J5">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N5">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O5">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P5">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q5">
-        <v>183.4445558599267</v>
+        <v>175.140844609985</v>
       </c>
       <c r="R5">
-        <v>1100.66733515956</v>
+        <v>1050.84506765991</v>
       </c>
       <c r="S5">
-        <v>0.05993135647934595</v>
+        <v>0.03714399958185065</v>
       </c>
       <c r="T5">
-        <v>0.0417162422830945</v>
+        <v>0.0254226366776428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.928253333333333</v>
+        <v>9.402088999999998</v>
       </c>
       <c r="H6">
-        <v>17.78476</v>
+        <v>28.206267</v>
       </c>
       <c r="I6">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="J6">
-        <v>0.4729671618337555</v>
+        <v>0.4769398566373552</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N6">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O6">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P6">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q6">
-        <v>86.72227593779554</v>
+        <v>141.301795492174</v>
       </c>
       <c r="R6">
-        <v>780.5004834401599</v>
+        <v>1271.716159429566</v>
       </c>
       <c r="S6">
-        <v>0.02833217704152972</v>
+        <v>0.02996738907114322</v>
       </c>
       <c r="T6">
-        <v>0.02958164218123367</v>
+        <v>0.03076607472713415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H7">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I7">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J7">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N7">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O7">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P7">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q7">
-        <v>359.571265058936</v>
+        <v>575.199947288525</v>
       </c>
       <c r="R7">
-        <v>3236.141385530424</v>
+        <v>5176.799525596725</v>
       </c>
       <c r="S7">
-        <v>0.1174719716535561</v>
+        <v>0.1219888293284355</v>
       </c>
       <c r="T7">
-        <v>0.1226525524913173</v>
+        <v>0.1252400544499982</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H8">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I8">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J8">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P8">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q8">
-        <v>837.0332960583739</v>
+        <v>1306.536846758758</v>
       </c>
       <c r="R8">
-        <v>7533.299664525365</v>
+        <v>11758.83162082883</v>
       </c>
       <c r="S8">
-        <v>0.2734588694442403</v>
+        <v>0.2770912987073322</v>
       </c>
       <c r="T8">
-        <v>0.2855185612925792</v>
+        <v>0.2844762879418647</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H9">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I9">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J9">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N9">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O9">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P9">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q9">
-        <v>115.546057783848</v>
+        <v>237.5459806270416</v>
       </c>
       <c r="R9">
-        <v>1039.914520054632</v>
+        <v>2137.913825643375</v>
       </c>
       <c r="S9">
-        <v>0.03774890972569673</v>
+        <v>0.0503789268844151</v>
       </c>
       <c r="T9">
-        <v>0.03941365813860381</v>
+        <v>0.05172161730603555</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H10">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I10">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J10">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N10">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O10">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P10">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q10">
-        <v>204.414413351991</v>
+        <v>192.077038677875</v>
       </c>
       <c r="R10">
-        <v>1226.486480111946</v>
+        <v>1152.46223206725</v>
       </c>
       <c r="S10">
-        <v>0.06678221121737161</v>
+        <v>0.0407358401189722</v>
       </c>
       <c r="T10">
-        <v>0.04648489650496675</v>
+        <v>0.02788101644307571</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.605922</v>
+        <v>10.311275</v>
       </c>
       <c r="H11">
-        <v>19.817766</v>
+        <v>30.933825</v>
       </c>
       <c r="I11">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626448</v>
       </c>
       <c r="J11">
-        <v>0.5270328381662445</v>
+        <v>0.5230601433626447</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N11">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O11">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P11">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q11">
-        <v>96.63564599818399</v>
+        <v>154.96573913665</v>
       </c>
       <c r="R11">
-        <v>869.7208139836558</v>
+        <v>1394.69165222985</v>
       </c>
       <c r="S11">
-        <v>0.03157087612537973</v>
+        <v>0.03286524832348985</v>
       </c>
       <c r="T11">
-        <v>0.03296316973877738</v>
+        <v>0.03374116722167064</v>
       </c>
     </row>
   </sheetData>
